--- a/RE-Framework_네이버쇼핑_박채연/Data/Config.xlsx
+++ b/RE-Framework_네이버쇼핑_박채연/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA_REFramework연습_네이버쇼핑_박채연\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_네이버쇼핑_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A52369-1063-44C0-BD76-444841552831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DFC461-9175-4DC9-85F2-7A0E5E870935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -693,14 +693,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>검색어</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>모니터, 냉장고, 세탁기</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>MailBody</t>
     <phoneticPr fontId="13"/>
   </si>
@@ -717,24 +709,24 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RPA_REFramework연습_네이버쇼핑\1.요청\</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RPA_REFramework연습_네이버쇼핑\2.작업\</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RPA_REFramework연습_네이버쇼핑\3.결과\</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>C:\Users\ICT CoC\Documents\UiPath\RPA_Repository\RPA_REFramework연습_네이버쇼핑\ExPath\</t>
+    <t>MailTo</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>C:\Users\ICT CoC\Documents\REFramework\RPA_Repository\RPA_REFramework연습_네이버쇼핑\1.요청\</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>C:\Users\ICT CoC\Documents\REFramework\RPA_Repository\RPA_REFramework연습_네이버쇼핑\2.작업\</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>C:\Users\ICT CoC\Documents\REFramework\RPA_Repository\RPA_REFramework연습_네이버쇼핑\3.결과\</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>C:\Users\ICT CoC\Documents\REFramework\RPA_Repository\RPA_REFramework연습_네이버쇼핑\ExPath\</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailTo</t>
-    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -1371,11 +1363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5256A42C-5ED4-4055-A8F8-1D2A1026AF2F}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1426,75 +1418,75 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="A5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
+      <c r="A8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
+      <c r="A9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>113</v>
@@ -1503,166 +1495,162 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="27"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
+        <v>104</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="40.5">
       <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" ht="40.5">
+        <v>91</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.5">
       <c r="A20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="409.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="54">
       <c r="A21" s="2" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="54">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="1"/>
+    </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>103</v>
+      <c r="A25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="28" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="40.5">
       <c r="A28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="40.5">
-      <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="13"/>
@@ -1724,20 +1712,15 @@
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2103,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C45133-1F58-4797-8585-3B6A73A476FF}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/RE-Framework_네이버쇼핑_박채연/Data/Config.xlsx
+++ b/RE-Framework_네이버쇼핑_박채연/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_네이버쇼핑_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DFC461-9175-4DC9-85F2-7A0E5E870935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A4BC9-B5D3-4950-8222-CCF78F870DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80601F42-B835-411D-B6F1-01869415BCDC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -681,10 +681,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>mangoperry2015@gmail.com</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>REFramework_네이버쇼핑_박채연.xlsx</t>
     <phoneticPr fontId="13"/>
   </si>
@@ -697,35 +693,27 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>작업 폴더</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>결과 폴더</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>요청 폴더</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>MailTo</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>C:\Users\ICT CoC\Documents\REFramework\RPA_Repository\RPA_REFramework연습_네이버쇼핑\1.요청\</t>
+    <t>요청</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>C:\Users\ICT CoC\Documents\REFramework\RPA_Repository\RPA_REFramework연습_네이버쇼핑\2.작업\</t>
+    <t>결과</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>C:\Users\ICT CoC\Documents\REFramework\RPA_Repository\RPA_REFramework연습_네이버쇼핑\3.결과\</t>
+    <t>C:\Users\ICT CoC\Documents\REFramework\RE-Framework_네이버쇼핑_박채연\Data\Input\</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>C:\Users\ICT CoC\Documents\REFramework\RPA_Repository\RPA_REFramework연습_네이버쇼핑\ExPath\</t>
+    <t>C:\Users\ICT CoC\Documents\REFramework\RE-Framework_네이버쇼핑_박채연\Data\Output\</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>C:\Users\ICT CoC\Documents\REFramework\RE-Framework_네이버쇼핑_박채연\Data\ExPath\</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1363,11 +1351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5256A42C-5ED4-4055-A8F8-1D2A1026AF2F}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1477,175 +1465,169 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="27"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="40.5">
       <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" ht="40.5">
+        <v>91</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.5">
       <c r="A19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="409.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="54">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="54">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="1"/>
+    </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>103</v>
+      <c r="A24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="28" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="29"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="40.5">
       <c r="A27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="40.5">
-      <c r="A28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="13"/>
@@ -1707,20 +1689,15 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
